--- a/ВКР/Данные4Глава.xlsx
+++ b/ВКР/Данные4Глава.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>время передвижения до конца карты</t>
   </si>
@@ -52,6 +52,51 @@
   </si>
   <si>
     <t>overlap</t>
+  </si>
+  <si>
+    <t>Количество войск</t>
+  </si>
+  <si>
+    <t>Итого для</t>
+  </si>
+  <si>
+    <t>подразделений</t>
+  </si>
+  <si>
+    <t>Тестируемый вид</t>
+  </si>
+  <si>
+    <t>мотострелковых</t>
+  </si>
+  <si>
+    <t>Количество тренировок на период</t>
+  </si>
+  <si>
+    <t>средняя</t>
+  </si>
+  <si>
+    <t>Количество тиков для 11-20</t>
+  </si>
+  <si>
+    <t>Количество тиков для 1-12</t>
+  </si>
+  <si>
+    <t>Количество тиков для 21-30</t>
+  </si>
+  <si>
+    <t>Погрешности</t>
+  </si>
+  <si>
+    <t>Войска долго "кружат" вокруг места расстановки</t>
+  </si>
+  <si>
+    <t>Войска расходятся в разные стороны, но не очень хорошо это делают</t>
+  </si>
+  <si>
+    <t>Войска идут в направлении противника</t>
+  </si>
+  <si>
+    <t>Награда за нахождение</t>
   </si>
 </sst>
 </file>
@@ -88,8 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,15 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +456,20 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,7 +477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -421,8 +487,15 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <f>B4/10</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -430,8 +503,24 @@
         <f>(B1+B3)*B2</f>
         <v>875</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <f>B4/2</f>
+        <v>437.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <f>B4*1</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -439,7 +528,29 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="7" spans="1:19">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <f>E1</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>H1</f>
+        <v>мотострелковых</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -449,20 +560,1205 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9">
+        <f>0.33</f>
+        <v>0.33</v>
+      </c>
+      <c r="C9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:F10" si="0">B9*$F$7</f>
+        <v>0.99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G9">
+        <f>(E9+F9)/2</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10">
+        <v>-2E-3</v>
+      </c>
+      <c r="C10">
+        <v>-2E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G11" si="1">(E10+F10)/2</f>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>B11*$F$7</f>
+        <v>-18</v>
+      </c>
+      <c r="F11">
+        <f>C11*$F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>($E$11*$B$4+($G$9)/2*$B$4) / $B$4 + B27</f>
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="C15">
+        <f>10+A15</f>
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (C15*$B$9*$H$4)) / $B$4 + D27</f>
+        <v>-15.175000000000001</v>
+      </c>
+      <c r="E15">
+        <f>10+C15</f>
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (E15*$B$9*$H$5)) / $B$4 + F27</f>
+        <v>-8.6706666666666692</v>
+      </c>
+      <c r="G15">
+        <f>10+E15</f>
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (G15*$B$9*$H$5)) / $B$4 +H27</f>
+        <v>-4.2647111111111098</v>
+      </c>
+      <c r="I15">
+        <f>10+G15</f>
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <f>10+I15</f>
+        <v>51</v>
+      </c>
+      <c r="M15">
+        <f>10+K15</f>
+        <v>61</v>
+      </c>
+      <c r="O15">
+        <f>10+M15</f>
+        <v>71</v>
+      </c>
+      <c r="Q15">
+        <f>10+O15</f>
+        <v>81</v>
+      </c>
+      <c r="S15">
+        <f>10+Q15</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (A16*$B$9*$H$3)) / $B$4 + B28</f>
+        <v>-16.123999999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:S24" si="2">10+A16</f>
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D24" si="3">($E$11*$B$4+($G$9)/2*$B$4 + (C16*$B$9*$H$4)) / $B$4 + D28</f>
+        <v>-14.56</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F24" si="4">($E$11*$B$4+($G$9)/2*$B$4 + (E16*$B$9*$H$5)) / $B$4 + F28</f>
+        <v>-5.5626666666666296</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (G16*$B$9*$H$5)) / $B$4 +H28</f>
+        <v>-3.9347111111111097</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B24" si="5">($E$11*$B$4+($G$9)/2*$B$4 + (A17*$B$9*$H$3)) / $B$4 + B29</f>
+        <v>-16.591000000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-14.595000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>-4.6464444444443993</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (G17*$B$9*$H$5)) / $B$4 +H29</f>
+        <v>-3.66635555555556</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>-16.658000000000001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>-14.510000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>-3.7302222222221699</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (G18*$B$9*$H$5)) / $B$4 +H30+$K$7</f>
+        <v>46.602000000000004</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>-16.824999999999999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-14.125666666666667</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>-8.09</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H24" si="6">($E$11*$B$4+($G$9)/2*$B$4 + (G19*$B$9*$H$5)) / $B$4 +H31+$K$7</f>
+        <v>46.870355555555548</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>-16.891999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-13.95169696969697</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>-7.1737777777777794</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>47.1387111111111</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>-16.059000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>-13.777727272727272</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>-6.25755555555555</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>47.407066666666651</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>-16.526</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>-13.603757575757577</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>-5.3413333333333206</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>47.67542222222221</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>-16.693000000000001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>-13.429787878787879</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>-4.4251111111111099</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <f>($E$11*$B$4+($G$9)/2*$B$4 + (G23*$B$9*$H$5)) / $B$4 +H35+$K$7 * 2</f>
+        <v>97.943777777777754</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>-16.46</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-13.255818181818183</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>-3.5088888888888801</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>48.212133333333313</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f>10+A27</f>
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <f>10+C27</f>
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>1.5893333333333299</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G36" si="7">10+E27</f>
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>2.6952888888888902</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I36" si="8">10+G27</f>
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K36" si="9">10+I27</f>
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M36" si="10">10+K27</f>
+        <v>61</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O36" si="11">10+M27</f>
+        <v>71</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:Q36" si="12">10+O27</f>
+        <v>81</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27:S36" si="13">10+Q27</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C36" si="14">10+A28</f>
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0.65</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E36" si="15">10+C28</f>
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>4.3673333333333701</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <v>2.6952888888888902</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>0.45</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>4.9535555555556003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>2.6336444444444398</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0.4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0.37</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>5.5397777777778296</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>0.58933333333333304</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>0.85</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>2.5103555555555501</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>0.59830303030303</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>1.4362222222222201</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>2.4487111111111002</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.9</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>0.60727272727272696</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>2.0224444444444498</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="H33">
+        <v>2.3870666666666498</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.4</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>0.61624242424242404</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>2.60866666666668</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>2.3254222222222101</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="13"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0.2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>0.625212121212121</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>3.1948888888888902</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <v>2.2637777777777601</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>0.63418181818181796</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>3.78111111111112</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>2.2021333333333102</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
